--- a/6_DrawFigure/Fig2a_Output/80% confidence interval.xlsx
+++ b/6_DrawFigure/Fig2a_Output/80% confidence interval.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\CMIP6\Program\6_DrawFigure\Fig2a_Output\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5AC144BD-68E5-4E6F-896F-B46FB07CC961}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{17B8E44C-98AF-4C06-AE85-4C14CFBE9E68}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="1290" windowWidth="18000" windowHeight="10335" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="825" yWindow="1305" windowWidth="18000" windowHeight="11340" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ReadMe" sheetId="5" r:id="rId1"/>

--- a/6_DrawFigure/Fig2a_Output/80% confidence interval.xlsx
+++ b/6_DrawFigure/Fig2a_Output/80% confidence interval.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22624"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23426"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\CMIP6\Program\6_DrawFigure\Fig2a_Output\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{17B8E44C-98AF-4C06-AE85-4C14CFBE9E68}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{646F416C-DCC1-41E2-B3EC-D922248BBEE4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="825" yWindow="1305" windowWidth="18000" windowHeight="11340" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3345" yWindow="1950" windowWidth="37650" windowHeight="15885" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ReadMe" sheetId="5" r:id="rId1"/>
